--- a/files/oenskeliste.xlsx
+++ b/files/oenskeliste.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TinusAamand\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\larschristiansen.dk\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -190,7 +190,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +213,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -231,15 +239,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -544,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,7 +591,7 @@
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -591,7 +602,7 @@
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -610,7 +621,7 @@
       <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -621,7 +632,7 @@
       <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -632,7 +643,7 @@
       <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -643,7 +654,7 @@
       <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -654,7 +665,7 @@
       <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -665,7 +676,7 @@
       <c r="B14" t="s">
         <v>28</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -681,7 +692,7 @@
       <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -692,7 +703,7 @@
       <c r="B17" t="s">
         <v>35</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -703,7 +714,7 @@
       <c r="B18" t="s">
         <v>38</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -714,7 +725,7 @@
       <c r="B19" t="s">
         <v>41</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -730,7 +741,7 @@
       <c r="B21" t="s">
         <v>45</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -741,7 +752,7 @@
       <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -752,7 +763,7 @@
       <c r="B23" t="s">
         <v>50</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -763,11 +774,29 @@
       <c r="B24" t="s">
         <v>53</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="3" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1"/>
+    <hyperlink ref="C7" r:id="rId2"/>
+    <hyperlink ref="C9" r:id="rId3"/>
+    <hyperlink ref="C10" r:id="rId4"/>
+    <hyperlink ref="C11" r:id="rId5"/>
+    <hyperlink ref="C12" r:id="rId6"/>
+    <hyperlink ref="C13" r:id="rId7"/>
+    <hyperlink ref="C14" r:id="rId8"/>
+    <hyperlink ref="C16" r:id="rId9"/>
+    <hyperlink ref="C17" r:id="rId10"/>
+    <hyperlink ref="C18" r:id="rId11"/>
+    <hyperlink ref="C19" r:id="rId12"/>
+    <hyperlink ref="C21" r:id="rId13"/>
+    <hyperlink ref="C22" r:id="rId14"/>
+    <hyperlink ref="C23" r:id="rId15"/>
+    <hyperlink ref="C24" r:id="rId16"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>